--- a/Excel_Interview_Practice.xlsx
+++ b/Excel_Interview_Practice.xlsx
@@ -5,29 +5,40 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/folders/y3/b5mrc_z94_q7tbh_2cx07vd00000gn/T/MicrosoftEdgeDownloads/eac4c4bb-c2ce-4105-94a4-16e480e1257e/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sp/Desktop/Excel-Data-Analysis-Cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66304E4C-6899-6846-A000-0387DF593A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAEA2849-5C0F-4744-A07F-218455DE82C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20800" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="s1" sheetId="6" r:id="rId1"/>
     <sheet name="Sales Data" sheetId="1" r:id="rId2"/>
     <sheet name="Customer Churn" sheetId="2" r:id="rId3"/>
-    <sheet name="Employee Performance" sheetId="3" r:id="rId4"/>
-    <sheet name="Data Cleaning" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId4"/>
+    <sheet name="Employee Performance" sheetId="3" r:id="rId5"/>
+    <sheet name="Data Cleaning" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="a">'Sales Data'!$1:$1048576</definedName>
     <definedName name="pp">'Sales Data'!$A$1:$G$11</definedName>
+    <definedName name="Slicer_Department">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId6"/>
+    <pivotCache cacheId="17" r:id="rId7"/>
+    <pivotCache cacheId="23" r:id="rId8"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId9"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -66,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="113">
   <si>
     <t>Date</t>
   </si>
@@ -305,9 +316,6 @@
     <t>david black</t>
   </si>
   <si>
-    <t>123-456-7890</t>
-  </si>
-  <si>
     <t>987 654 3210</t>
   </si>
   <si>
@@ -357,6 +365,76 @@
   </si>
   <si>
     <t>4. Create a Pie Chart to show the proportion of Active vs. Churned customers</t>
+  </si>
+  <si>
+    <t>1. Find total revenue for each region using a Pivot Table.</t>
+  </si>
+  <si>
+    <t>2.	Calculate the total sales made by each Sales Rep using SUMIFS().</t>
+  </si>
+  <si>
+    <t>1. Calculate Efficiency (%) using the formula:</t>
+  </si>
+  <si>
+    <t>2.	Find the top-performing employee using LARGE() and INDEX().</t>
+  </si>
+  <si>
+    <t>Use Large to find largest value efficiency which is Look up value</t>
+  </si>
+  <si>
+    <t>Highest Efficiency (Lookuo value)</t>
+  </si>
+  <si>
+    <t>Use Match to find row of look up value</t>
+  </si>
+  <si>
+    <t>Row of Lookup value</t>
+  </si>
+  <si>
+    <t>Employee Name</t>
+  </si>
+  <si>
+    <t>use index to obtain required value</t>
+  </si>
+  <si>
+    <t>Sum of Efficiency (%)</t>
+  </si>
+  <si>
+    <t>Sum of Hours Worked</t>
+  </si>
+  <si>
+    <t>Sum of Tasks Completed</t>
+  </si>
+  <si>
+    <t>4.	Create a dynamic dashboard using a Pivot Table and Slicers.</t>
+  </si>
+  <si>
+    <t>3. Create a bar chart to compare total revenue by region.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.Write a formula to find the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>third highest revenue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t xml:space="preserve"> in a sales dataset.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">123-456-7890   </t>
   </si>
 </sst>
 </file>
@@ -366,7 +444,7 @@
   <numFmts count="1">
     <numFmt numFmtId="179" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +461,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos"/>
@@ -408,7 +492,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -457,11 +541,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -484,57 +579,25 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -586,14 +649,50 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+    </dxf>
+    <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -796,7 +895,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sales Data'!$I$15</c:f>
+              <c:f>'Sales Data'!$L$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -855,7 +954,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Sales Data'!$H$16:$H$19</c:f>
+              <c:f>'Sales Data'!$K$5:$K$8</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -872,7 +971,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sales Data'!$I$16:$I$19</c:f>
+              <c:f>'Sales Data'!$L$5:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2538,6 +2637,172 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>92069</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Department">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{645D83D0-CE77-EC64-92CC-F92A7391303B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Department"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6451600" y="330200"/>
+              <a:ext cx="1828800" cy="2428869"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1828800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>142869</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Department 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4925045A-AA8E-5144-B700-F2C4E75067C6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Department 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5448300" y="7073900"/>
+              <a:ext cx="1828800" cy="2428869"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="SP" refreshedDate="45724.730734490739" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{D20EAB4A-B64B-C945-83FE-CE13FF85018D}">
   <cacheSource type="worksheet">
@@ -2577,6 +2842,64 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
       <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="SP" refreshedDate="45724.944338425928" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{CEBCFA6E-3ED3-6E44-BE94-F60A104DEB94}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E11" sheet="Employee Performance"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Employee" numFmtId="0">
+      <sharedItems count="10">
+        <s v="Alice"/>
+        <s v="Bob"/>
+        <s v="Charlie"/>
+        <s v="David"/>
+        <s v="Eva"/>
+        <s v="Frank"/>
+        <s v="Grace"/>
+        <s v="Helen"/>
+        <s v="Ivy"/>
+        <s v="Jack"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Department" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Sales"/>
+        <s v="HR"/>
+        <s v="IT"/>
+        <s v="Finance"/>
+        <s v="Marketing"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Tasks Completed" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="30" maxValue="60"/>
+    </cacheField>
+    <cacheField name="Hours Worked" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="140" maxValue="175"/>
+    </cacheField>
+    <cacheField name="Efficiency (%)" numFmtId="179">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="21.428571428571427" maxValue="35.294117647058826" count="10">
+        <n v="31.25"/>
+        <n v="21.428571428571427"/>
+        <n v="30"/>
+        <n v="35.294117647058826"/>
+        <n v="33.333333333333329"/>
+        <n v="25.806451612903224"/>
+        <n v="24.137931034482758"/>
+        <n v="32.432432432432435"/>
+        <n v="32.098765432098766"/>
+        <n v="33.142857142857139"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="917152782"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -2677,9 +3000,84 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="50"/>
+    <n v="160"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="30"/>
+    <n v="140"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="45"/>
+    <n v="150"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="60"/>
+    <n v="170"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="55"/>
+    <n v="165"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="40"/>
+    <n v="155"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="35"/>
+    <n v="145"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="48"/>
+    <n v="148"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="52"/>
+    <n v="162"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="4"/>
+    <n v="58"/>
+    <n v="175"/>
+    <x v="9"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{22E2B805-4B0F-194F-A8A9-7D1279FFEE80}" name="PivotTable4" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="H15:I19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="K4:L8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0">
@@ -2773,11 +3171,227 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C5D0573C-3F7C-5D4F-BB2B-B4A9776B5A38}" name="PivotTable5" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="179" showAll="0">
+      <items count="11">
+        <item x="1"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Sum of Efficiency (%)" fld="4" baseField="0" baseItem="0" numFmtId="179"/>
+    <dataField name="Sum of Hours Worked" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Tasks Completed" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1DA07F4D-C692-6F4D-BEF4-7480221187A9}" name="PivotTable6" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G30:J33" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="179" showAll="0">
+      <items count="11">
+        <item x="1"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Sum of Efficiency (%)" fld="4" baseField="0" baseItem="0" numFmtId="179"/>
+    <dataField name="Sum of Hours Worked" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Tasks Completed" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Department" xr10:uid="{A204AED9-ACED-4544-8555-1A2CE269AF64}" sourceName="Department">
+  <pivotTables>
+    <pivotTable tabId="7" name="PivotTable5"/>
+    <pivotTable tabId="3" name="PivotTable6"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="917152782">
+      <items count="5">
+        <i x="3" s="1"/>
+        <i x="1"/>
+        <i x="2"/>
+        <i x="4"/>
+        <i x="0"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Department" xr10:uid="{91382E64-D821-D146-965F-881E4A568CBC}" cache="Slicer_Department" caption="Department" rowHeight="230716"/>
+</slicers>
+</file>
+
+<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Department 1" xr10:uid="{9451ED3E-A676-9242-BDD9-15E0D18F7C4A}" cache="Slicer_Department" caption="Department" rowHeight="230716"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F2B53E4-AFE9-4E48-AF35-76A8524F46B0}" name="elec" displayName="elec" ref="A1:G11" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="12" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F2B53E4-AFE9-4E48-AF35-76A8524F46B0}" name="elec" displayName="elec" ref="A1:G11" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="11" tableBorderDxfId="12">
   <autoFilter ref="A1:G11" xr:uid="{5F2B53E4-AFE9-4E48-AF35-76A8524F46B0}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{98D0C42F-D928-0A4D-8F55-FC072636EC97}" name="Date" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{98D0C42F-D928-0A4D-8F55-FC072636EC97}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{88752F33-4363-974B-8843-41F9827A091A}" name="Product"/>
     <tableColumn id="3" xr3:uid="{659064EE-DD10-BA46-B826-A0ACF2144423}" name="Region"/>
     <tableColumn id="4" xr3:uid="{A3E5A981-C0CF-D645-B9F9-F91B8679B2A5}" name="Sales Rep"/>
@@ -2790,12 +3404,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B36EEA01-9EC8-9E4A-BDFB-3E274C00D596}" name="customer" displayName="customer" ref="A1:E11" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="2" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B36EEA01-9EC8-9E4A-BDFB-3E274C00D596}" name="customer" displayName="customer" ref="A1:E11" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="8">
   <autoFilter ref="A1:E11" xr:uid="{B36EEA01-9EC8-9E4A-BDFB-3E274C00D596}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{EF5983A6-0671-E945-A945-494E909443F1}" name="Customer ID"/>
     <tableColumn id="2" xr3:uid="{5CCC0223-B250-7B44-8067-EB0297910859}" name="Join Date"/>
-    <tableColumn id="3" xr3:uid="{47C13A6C-0C04-5746-938A-FB64FF833DBB}" name="Last Activity Date" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{47C13A6C-0C04-5746-938A-FB64FF833DBB}" name="Last Activity Date" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{618617F1-E635-DB4F-8E5C-A31F8B0447C8}" name="Monthly Plan ($)"/>
     <tableColumn id="5" xr3:uid="{5F13065F-24C1-BC42-8EA1-BF94A6B99829}" name="Status"/>
   </tableColumns>
@@ -3108,10 +3722,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3126,7 +3740,7 @@
     <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3148,11 +3762,8 @@
       <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45292</v>
       </c>
@@ -3174,16 +3785,8 @@
       <c r="G2">
         <v>2400</v>
       </c>
-      <c r="I2" t="str" cm="1">
-        <f t="array" ref="I2:I4">_xlfn.UNIQUE(D2:D11)</f>
-        <v>John</v>
-      </c>
-      <c r="J2" cm="1">
-        <f t="array" ref="J2:J4">SUMIFS(elec[Revenue],elec[Sales Rep],I2:I4)</f>
-        <v>10800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45293</v>
       </c>
@@ -3205,14 +3808,11 @@
       <c r="G3">
         <v>4000</v>
       </c>
-      <c r="I3" t="str">
-        <v>Sarah</v>
-      </c>
-      <c r="J3">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45294</v>
       </c>
@@ -3234,14 +3834,14 @@
       <c r="G4">
         <v>1500</v>
       </c>
-      <c r="I4" t="str">
-        <v>Mike</v>
-      </c>
-      <c r="J4">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45295</v>
       </c>
@@ -3263,8 +3863,14 @@
       <c r="G5">
         <v>4800</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="5">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45296</v>
       </c>
@@ -3286,8 +3892,14 @@
       <c r="G6">
         <v>1600</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="5">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45297</v>
       </c>
@@ -3309,8 +3921,14 @@
       <c r="G7">
         <v>3000</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="5">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45298</v>
       </c>
@@ -3332,8 +3950,14 @@
       <c r="G8">
         <v>1200</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="5">
+        <v>25800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45299</v>
       </c>
@@ -3356,7 +3980,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45300</v>
       </c>
@@ -3379,7 +4003,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>45301</v>
       </c>
@@ -3401,50 +4025,56 @@
       <c r="G11">
         <v>2400</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H15" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="L11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="5">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L13" t="str" cm="1">
+        <f t="array" ref="L13:L15">_xlfn.UNIQUE(D2:D11)</f>
+        <v>John</v>
+      </c>
+      <c r="M13" cm="1">
+        <f t="array" ref="M13:M15">SUMIFS(elec[Revenue],elec[Sales Rep],L13:L15)</f>
         <v>10800</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="5">
+    <row r="14" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="L14" t="str">
+        <v>Sarah</v>
+      </c>
+      <c r="M14">
+        <v>8000</v>
+      </c>
+      <c r="U14" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L15" t="str">
+        <v>Mike</v>
+      </c>
+      <c r="M15">
         <v>7000</v>
       </c>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="5">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" s="5">
-        <v>25800</v>
+      <c r="U15">
+        <f>LARGE(elec[Revenue],3)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="20" spans="12:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="L20" s="10" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="top10" dxfId="4" priority="1" rank="5"/>
+    <cfRule type="top10" dxfId="2" priority="1" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -3458,7 +4088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+    <sheetView zoomScale="119" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -3506,7 +4136,7 @@
         <v>49</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -3607,7 +4237,7 @@
         <v>50</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -3648,7 +4278,7 @@
         <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -3743,7 +4373,7 @@
     </row>
     <row r="23" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3756,11 +4386,103 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDE81FC-057F-2C48-A163-BDD8EC127542}">
+  <dimension ref="A3:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A3" sqref="A3:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="11">
+        <v>35.294117647058826</v>
+      </c>
+      <c r="C4" s="5">
+        <v>170</v>
+      </c>
+      <c r="D4" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="11">
+        <v>32.098765432098766</v>
+      </c>
+      <c r="C5" s="5">
+        <v>162</v>
+      </c>
+      <c r="D5" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="11">
+        <v>67.392883079157599</v>
+      </c>
+      <c r="C6" s="5">
+        <v>332</v>
+      </c>
+      <c r="D6" s="5">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3768,10 +4490,11 @@
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="7" max="7" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -3788,7 +4511,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -3805,8 +4528,11 @@
         <f>(C2/D2)*100</f>
         <v>31.25</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G2" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -3820,11 +4546,11 @@
         <v>140</v>
       </c>
       <c r="E3" s="11">
-        <f t="shared" ref="E3:E11" si="0">C3/D3*100</f>
+        <f>C3/D3*100</f>
         <v>21.428571428571427</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -3838,11 +4564,11 @@
         <v>150</v>
       </c>
       <c r="E4" s="11">
-        <f t="shared" si="0"/>
+        <f>C4/D4*100</f>
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -3856,134 +4582,408 @@
         <v>170</v>
       </c>
       <c r="E5" s="11">
-        <f t="shared" si="0"/>
+        <f>C5/D5*100</f>
         <v>35.294117647058826</v>
       </c>
-      <c r="H5">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6">
+        <v>55</v>
+      </c>
+      <c r="D6">
+        <v>165</v>
+      </c>
+      <c r="E6" s="11">
+        <f>C6/D6*100</f>
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>155</v>
+      </c>
+      <c r="E7" s="11">
+        <f>C7/D7*100</f>
+        <v>25.806451612903224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>145</v>
+      </c>
+      <c r="E8" s="11">
+        <f>C8/D8*100</f>
+        <v>24.137931034482758</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9">
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>148</v>
+      </c>
+      <c r="E9" s="11">
+        <f>C9/D9*100</f>
+        <v>32.432432432432435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10">
+        <v>52</v>
+      </c>
+      <c r="D10">
+        <v>162</v>
+      </c>
+      <c r="E10" s="11">
+        <f>C10/D10*100</f>
+        <v>32.098765432098766</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11">
+        <v>58</v>
+      </c>
+      <c r="D11">
+        <v>175</v>
+      </c>
+      <c r="E11" s="11">
+        <f>C11/D11*100</f>
+        <v>33.142857142857139</v>
+      </c>
+    </row>
+    <row r="17" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23">
         <f>LARGE(E2:E11,1)</f>
         <v>35.294117647058826</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="24" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24">
+        <f>MATCH(H23,E2:E11,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" t="str" cm="1">
+        <f t="array" ref="H25">INDEX(A2:A11&amp;" "&amp;B2:B11,H24)</f>
+        <v>David Finance</v>
+      </c>
+    </row>
+    <row r="29" spans="6:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="G29" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F30" s="13"/>
+      <c r="G30" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+    </row>
+    <row r="31" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F31" s="13"/>
+      <c r="G31" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="16">
+        <v>35.294117647058826</v>
+      </c>
+      <c r="I31" s="17">
+        <v>170</v>
+      </c>
+      <c r="J31" s="17">
         <v>60</v>
       </c>
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6">
-        <v>55</v>
-      </c>
-      <c r="D6">
-        <v>165</v>
-      </c>
-      <c r="E6" s="11">
-        <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7">
-        <v>40</v>
-      </c>
-      <c r="D7">
-        <v>155</v>
-      </c>
-      <c r="E7" s="11">
-        <f t="shared" si="0"/>
-        <v>25.806451612903224</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8">
-        <v>35</v>
-      </c>
-      <c r="D8">
-        <v>145</v>
-      </c>
-      <c r="E8" s="11">
-        <f t="shared" si="0"/>
-        <v>24.137931034482758</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9">
-        <v>48</v>
-      </c>
-      <c r="D9">
-        <v>148</v>
-      </c>
-      <c r="E9" s="11">
-        <f t="shared" si="0"/>
-        <v>32.432432432432435</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+    </row>
+    <row r="32" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F32" s="13"/>
+      <c r="G32" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10">
+      <c r="H32" s="16">
+        <v>32.098765432098766</v>
+      </c>
+      <c r="I32" s="17">
+        <v>162</v>
+      </c>
+      <c r="J32" s="17">
         <v>52</v>
       </c>
-      <c r="D10">
-        <v>162</v>
-      </c>
-      <c r="E10" s="11">
-        <f t="shared" si="0"/>
-        <v>32.098765432098766</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11">
-        <v>58</v>
-      </c>
-      <c r="D11">
-        <v>175</v>
-      </c>
-      <c r="E11" s="11">
-        <f t="shared" si="0"/>
-        <v>33.142857142857139</v>
-      </c>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+    </row>
+    <row r="33" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F33" s="13"/>
+      <c r="G33" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33" s="16">
+        <v>67.392883079157599</v>
+      </c>
+      <c r="I33" s="17">
+        <v>332</v>
+      </c>
+      <c r="J33" s="17">
+        <v>112</v>
+      </c>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+    </row>
+    <row r="34" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+    </row>
+    <row r="35" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+    </row>
+    <row r="36" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F36" s="13"/>
+      <c r="G36" s="13">
+        <v>4</v>
+      </c>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+    </row>
+    <row r="37" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+    </row>
+    <row r="38" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+    </row>
+    <row r="39" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+    </row>
+    <row r="40" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+    </row>
+    <row r="41" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+    </row>
+    <row r="42" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+    </row>
+    <row r="43" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+    </row>
+    <row r="44" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+    </row>
+    <row r="45" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+    </row>
+    <row r="46" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+    </row>
+    <row r="47" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+    </row>
+    <row r="48" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>30</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="174" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -4001,10 +5001,10 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -4012,10 +5012,10 @@
         <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4023,10 +5023,10 @@
         <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -4034,10 +5034,10 @@
         <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -4045,10 +5045,97 @@
         <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f>PROPER(TRIM(A2))</f>
+        <v>John Smith</v>
+      </c>
+      <c r="B10" t="str">
+        <f>SUBSTITUTE(TRIM(B2), "-", "")</f>
+        <v>1234567890</v>
+      </c>
+      <c r="C10" t="str">
+        <f>LOWER(TRIM(C2))</f>
+        <v>john.smith@email.com</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f t="shared" ref="A11:A15" si="0">PROPER(A3)</f>
+        <v>Sarah Connor</v>
+      </c>
+      <c r="B11" t="str">
+        <f>SUBSTITUTE(TRIM(B3), "-", "")</f>
+        <v>987 654 3210</v>
+      </c>
+      <c r="C11" t="str">
+        <f>LOWER(TRIM(C3))</f>
+        <v>sarah.connor@email.com</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>Michael Brown</v>
+      </c>
+      <c r="B12" t="str">
+        <f>SUBSTITUTE(TRIM(B4), "-", "")</f>
+        <v>4567891234</v>
+      </c>
+      <c r="C12" t="str">
+        <f>LOWER(TRIM(C4))</f>
+        <v>michael.brown@email.com</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>Lisa White</v>
+      </c>
+      <c r="B13" t="str">
+        <f>SUBSTITUTE(TRIM(B5), "-", "")</f>
+        <v>321.654.9870</v>
+      </c>
+      <c r="C13" t="str">
+        <f>LOWER(TRIM(C5))</f>
+        <v>lisa.white@email.com</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>David Black</v>
+      </c>
+      <c r="B14" t="str">
+        <f>SUBSTITUTE(TRIM(B6), "-", "")</f>
+        <v>7894561230</v>
+      </c>
+      <c r="C14" t="str">
+        <f>LOWER(TRIM(C6))</f>
+        <v>david.black@email.com</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
